--- a/biology/Biologie cellulaire et moléculaire/RTN3/RTN3.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/RTN3/RTN3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le RTN3 est une protéine appartenant à la famille des réticulons. Son gène RTN3 est situé sur le chromosome 11 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Structure et rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il possède deux domaines transmembranaires, interagissant avec la protéine BACE1[5] en inhibant son activité[6]. Il intervient dans la formation des formes tubulaires du réticulum endoplasmique[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il possède deux domaines transmembranaires, interagissant avec la protéine BACE1 en inhibant son activité. Il intervient dans la formation des formes tubulaires du réticulum endoplasmique. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il intervient dans le dépôt de plaques amyloïdes par l'intermédiaire de son action sur le BACE1[6], et de neurites dystrophiques lors de la maladie d'Alzheimer[8].
-Il interagit avec l'Hsp70, favorisant l'obésité et l'accumulation de triglycérides[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il intervient dans le dépôt de plaques amyloïdes par l'intermédiaire de son action sur le BACE1, et de neurites dystrophiques lors de la maladie d'Alzheimer.
+Il interagit avec l'Hsp70, favorisant l'obésité et l'accumulation de triglycérides.
 </t>
         </is>
       </c>
